--- a/Binary problem/XgbFeatureInteractions.xlsx
+++ b/Binary problem/XgbFeatureInteractions.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive - University College London\Documents\PhD - UCL\GBM feature extraction\Binary problem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FA0845-3D96-47D5-88F1-5430A504AB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interaction Depth 0" sheetId="1" r:id="rId1"/>
-    <sheet name="Interaction Depth 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Leaf Statistics" sheetId="3" r:id="rId3"/>
-    <sheet name="Split Value Histograms" sheetId="4" r:id="rId4"/>
+    <sheet name="Leaf Statistics" sheetId="2" r:id="rId2"/>
+    <sheet name="Split Value Histograms" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Interaction</t>
   </si>
@@ -70,25 +75,7 @@
     <t>rail_tt</t>
   </si>
   <si>
-    <t>['rail_tt', 2.28349996, 4.37222862, ['rail_tt', 2.28349996, 0.418302774, ['rail_tt', 2.66650009, 2.07671452]], ['rail_tt', 2.28349996, 0.241557837, ['rail_tt', 2.66650009, 1.36987066]]]</t>
-  </si>
-  <si>
-    <t>rail_cost</t>
-  </si>
-  <si>
-    <t>['rail_cost', 12.2039566, 1.2153151, ['rail_cost', 16.5308132, 3.91800785], ['rail_cost', 12.2039566, 0.638614118, ['rail_cost', 16.5308132, 2.22130775]]]</t>
-  </si>
-  <si>
-    <t>rail_cost|rail_cost</t>
-  </si>
-  <si>
-    <t>['rail_cost', 12.2039566, 1.2153151, ['rail_cost', 12.2039566, 0.638614118]]</t>
-  </si>
-  <si>
-    <t>rail_tt|rail_tt</t>
-  </si>
-  <si>
-    <t>['rail_tt', 2.28349996, 0.418302774, ['rail_tt', 2.28349996, 0.241557837]]</t>
+    <t>['rail_tt', 2.28349996, 4.37222862]</t>
   </si>
   <si>
     <t>Sum Leaf Values Left</t>
@@ -106,11 +93,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,12 +131,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -162,11 +149,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -208,7 +203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,9 +235,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,6 +287,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -449,22 +480,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="12" width="18.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" style="2" customWidth="1"/>
-    <col min="15" max="16" width="19.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" style="1" customWidth="1"/>
+    <col min="2" max="10" width="17.7265625" customWidth="1"/>
+    <col min="11" max="12" width="18.7265625" customWidth="1"/>
+    <col min="13" max="13" width="19.7265625" customWidth="1"/>
+    <col min="14" max="14" width="17.7265625" style="2" customWidth="1"/>
+    <col min="15" max="16" width="19.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -514,27 +545,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2">
-        <v>8.478674411</v>
+        <v>4.3722286199999996</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>4.767779179031034</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.9535558358062068</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.6957348822</v>
+        <v>4.3722286199999996</v>
       </c>
       <c r="G2">
-        <v>8.401375456300341</v>
+        <v>4.3722286199999996</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -549,75 +580,22 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2" s="2">
-        <v>1.166666666666667</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>7.993244818</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>3.241740511377948</v>
-      </c>
-      <c r="E3">
-        <v>0.8104351278444871</v>
-      </c>
-      <c r="F3">
-        <v>1.9983112045</v>
-      </c>
-      <c r="G3">
-        <v>7.288012457326118</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1.833333333333333</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -626,175 +604,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="1" customWidth="1"/>
-    <col min="2" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="12" width="18.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" style="2" customWidth="1"/>
-    <col min="15" max="16" width="19.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>7.993244818</v>
+        <v>-0.115966395</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>-0.31267607200000003</v>
       </c>
       <c r="D2">
-        <v>1.241740511377948</v>
+        <v>28.75</v>
       </c>
       <c r="E2">
-        <v>0.6208702556889742</v>
-      </c>
-      <c r="F2">
-        <v>3.996622409</v>
-      </c>
-      <c r="G2">
-        <v>4.953493619635738</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>4.106445791</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1.767779179031035</v>
-      </c>
-      <c r="E3">
-        <v>0.8838895895155174</v>
-      </c>
-      <c r="F3">
-        <v>2.0532228955</v>
-      </c>
-      <c r="G3">
-        <v>3.626233867658105</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="O3" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>23</v>
+        <v>16.75</v>
       </c>
     </row>
   </sheetData>
@@ -803,168 +657,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="1" customWidth="1"/>
-    <col min="2" max="5" width="20.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.7265625" customWidth="1"/>
+    <col min="3" max="5" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2.2834999599999999</v>
       </c>
       <c r="B2">
-        <v>-0.115966395</v>
-      </c>
-      <c r="C2">
-        <v>-0.7455922070000001</v>
-      </c>
-      <c r="D2">
-        <v>28.75</v>
-      </c>
-      <c r="E2">
-        <v>26.64701653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>-0.435568764</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>33.7735615</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>0.0431106686</v>
-      </c>
-      <c r="C4">
-        <v>-0.1844438169</v>
-      </c>
-      <c r="D4">
-        <v>17.39397812</v>
-      </c>
-      <c r="E4">
-        <v>37.90426069999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>-0.0470878631</v>
-      </c>
-      <c r="C5">
-        <v>-0.1721105575</v>
-      </c>
-      <c r="D5">
-        <v>55.60212509999999</v>
-      </c>
-      <c r="E5">
-        <v>19.7106733</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>2.28349996</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>12.2039566</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2.66650009</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>16.5308132</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
